--- a/MonthlyReport.xlsx
+++ b/MonthlyReport.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7815"/>
+    <workbookView windowWidth="19815" windowHeight="7815"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>S.No.</t>
   </si>
@@ -36,15 +36,18 @@
   <si>
     <t>Dec-2020</t>
   </si>
+  <si>
+    <t>Jan-2021</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="20">
@@ -70,80 +73,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -164,14 +128,39 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -185,16 +174,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,187 +218,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,6 +427,48 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -435,17 +480,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -467,42 +501,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -511,152 +514,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -667,9 +670,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -994,7 +994,9 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="5"/>
@@ -1048,8 +1050,26 @@
         <v>119000</v>
       </c>
     </row>
-    <row r="3" spans="2:2">
-      <c r="B3" s="4"/>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1485640</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1547500</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1379300</v>
+      </c>
+      <c r="F3" s="1">
+        <f>D3-E3</f>
+        <v>168200</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/MonthlyReport.xlsx
+++ b/MonthlyReport.xlsx
@@ -46,8 +46,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="20">
@@ -67,14 +67,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -82,32 +98,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -119,9 +112,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -129,14 +129,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -150,22 +142,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -174,8 +150,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -188,16 +172,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,25 +218,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -248,157 +386,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,48 +409,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -465,6 +423,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -501,6 +468,39 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -514,7 +514,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -532,134 +532,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -670,6 +670,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -991,15 +994,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="6.28571428571429" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.2857142857143" style="1" customWidth="1"/>
@@ -1071,6 +1074,27 @@
         <v>168200</v>
       </c>
     </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
+        <v>44228</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1263080</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1382700</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1203800</v>
+      </c>
+      <c r="F4" s="1">
+        <f>D4-E4</f>
+        <v>178900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/MonthlyReport.xlsx
+++ b/MonthlyReport.xlsx
@@ -45,10 +45,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -67,13 +67,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -96,9 +89,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -112,23 +120,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -143,16 +159,38 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -160,44 +198,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,67 +218,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -290,115 +380,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,6 +409,36 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -429,6 +459,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -436,17 +477,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -465,56 +509,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -532,130 +532,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -999,7 +999,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="5"/>
@@ -1088,11 +1088,11 @@
         <v>1382700</v>
       </c>
       <c r="E4" s="1">
-        <v>1203800</v>
+        <v>1208800</v>
       </c>
       <c r="F4" s="1">
         <f>D4-E4</f>
-        <v>178900</v>
+        <v>173900</v>
       </c>
     </row>
   </sheetData>

--- a/MonthlyReport.xlsx
+++ b/MonthlyReport.xlsx
@@ -45,10 +45,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -66,6 +66,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -73,6 +89,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -81,6 +105,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -90,25 +128,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -120,36 +150,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -160,6 +160,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -167,6 +175,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -175,29 +197,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,187 +218,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,21 +409,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -459,20 +444,39 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -495,17 +499,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -514,7 +514,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -532,130 +532,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -994,15 +994,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="6.28571428571429" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.2857142857143" style="1" customWidth="1"/>
@@ -1095,6 +1095,27 @@
         <v>173900</v>
       </c>
     </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
+        <v>44256</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1343160</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1465400</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1292800</v>
+      </c>
+      <c r="F5" s="1">
+        <f>D5-E5</f>
+        <v>172600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/MonthlyReport.xlsx
+++ b/MonthlyReport.xlsx
@@ -45,10 +45,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -68,7 +68,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -76,32 +99,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -112,23 +120,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -142,11 +136,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -160,7 +154,42 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -168,36 +197,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,181 +218,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,21 +409,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -438,6 +423,17 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -499,13 +495,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -514,15 +514,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -532,127 +532,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -994,15 +994,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4:F5"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="6.28571428571429" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.2857142857143" style="1" customWidth="1"/>
@@ -1116,6 +1116,27 @@
         <v>172600</v>
       </c>
     </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4">
+        <v>44287</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1415960</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1536600</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1334700</v>
+      </c>
+      <c r="F6" s="1">
+        <f>D6-E6</f>
+        <v>201900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
